--- a/src/main/TestData/TestData.xlsx
+++ b/src/main/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshChirra\Desktop\IBM_Projects\Selenium_WS\in.ibm.chirra.saf\src\main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B0BADE-C716-42EB-80AE-7AFBC85747DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47816F5-1AA5-4337-AC05-C6A7F04FF507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
